--- a/generated_doc/0100_test_excel_file.xlsx
+++ b/generated_doc/0100_test_excel_file.xlsx
@@ -18,7 +18,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <name val="Arial"/>
       <color rgb="FF000000"/>
@@ -30,6 +30,15 @@
       <color rgb="FF000000"/>
       <sz val="8"/>
     </font>
+    <font>
+      <name val="Arial"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -39,20 +48,37 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -328,7 +354,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:B4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -336,6 +362,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
+    <row r="1"/>
     <row r="2">
       <c r="B2" s="1" t="n"/>
     </row>
@@ -343,7 +370,43 @@
       <c r="B3" s="1" t="n"/>
     </row>
     <row r="4">
-      <c r="B4" s="1" t="n"/>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>권요청제목</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>권확인자</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>권요청번호</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>36892</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>권개발자</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>36924</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>권작성자</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -356,14 +419,114 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1"/>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>권요청제목</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>테스트내용1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>개발자1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>권요청번호</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>테스트내용2</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>개발자2</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>권개발자</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>테스트내용3</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>개발자3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>권작성자</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>테스트내용4</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>개발자4</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>권확인자</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>테스트내용5</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>개발자5</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="D10" s="6" t="n">
+        <v>36892</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="D11" s="6" t="n">
+        <v>36924</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -374,7 +537,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -382,39 +545,52 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+    <row r="1"/>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>권요청제목</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row r="5">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>권요청번호</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="6">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>권개발자</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>권작성자</t>
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>권확인자</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="6" t="n">
+        <v>36892</v>
+      </c>
+    </row>
     <row r="10">
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>권확인자</t>
-        </is>
+      <c r="B10" s="6" t="n">
+        <v>36924</v>
       </c>
     </row>
   </sheetData>
@@ -428,7 +604,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="D4:G8"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,104 +612,124 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
+    <row r="3">
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>권요청제목</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t>권작성자</t>
+        </is>
+      </c>
+    </row>
     <row r="4">
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>테스트내용1</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>개발자1</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>권요청번호</t>
+        </is>
+      </c>
+      <c r="H4" s="4" t="inlineStr">
+        <is>
+          <t>권요청제목</t>
+        </is>
+      </c>
+      <c r="I4" s="3" t="inlineStr">
         <is>
           <t>권확인자</t>
         </is>
       </c>
-      <c r="G4" s="2" t="n">
+    </row>
+    <row r="5">
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>권개발자</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>권요청제목</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>권요청번호</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>권작성자</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>권요청번호</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="inlineStr">
+        <is>
+          <t>권개발자</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>권확인자</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>권개발자</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" s="6" t="n">
         <v>36892</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>테스트내용2</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>개발자2</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>권작성자</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="6" t="n">
+        <v>36924</v>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
         <is>
           <t>권확인자</t>
         </is>
       </c>
-      <c r="G5" s="2" t="n">
+    </row>
+    <row r="10">
+      <c r="E10" s="6" t="n">
         <v>36892</v>
       </c>
     </row>
-    <row r="6">
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>테스트내용3</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>개발자3</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>권확인자</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="n">
+    <row r="11">
+      <c r="E11" s="6" t="n">
+        <v>36924</v>
+      </c>
+    </row>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15">
+      <c r="J15" s="6" t="n">
         <v>36892</v>
       </c>
     </row>
-    <row r="7">
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>테스트내용4</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>개발자4</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>권확인자</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>36892</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>테스트내용5</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>개발자5</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>권확인자</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>36892</v>
+    <row r="16">
+      <c r="J16" s="6" t="n">
+        <v>36924</v>
       </c>
     </row>
   </sheetData>
